--- a/testdata/TestInput.xlsx
+++ b/testdata/TestInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manisa_mahapatra\Downloads\BW\Selenium\MSHS\UI_Automation-main1\UI_Automation2\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B922C-2641-4A5C-B05C-1FB91F0A7FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7FD4A-EB15-4E16-801D-A5666036A1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Browser" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,17 @@
     <sheet name="VIP_Profiles" sheetId="3" r:id="rId3"/>
     <sheet name="VIP_Profiles (2)" sheetId="6" r:id="rId4"/>
     <sheet name="EOS_Profiles" sheetId="5" r:id="rId5"/>
+    <sheet name="Search" sheetId="8" r:id="rId6"/>
+    <sheet name="Base_URI" sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="16" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="17" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="18" r:id="rId11"/>
+    <sheet name="Sheet8" sheetId="19" r:id="rId12"/>
+    <sheet name="Sheet9" sheetId="20" r:id="rId13"/>
+    <sheet name="Visit_Type" sheetId="9" r:id="rId14"/>
+    <sheet name="Select Visit_Type" sheetId="10" r:id="rId15"/>
+    <sheet name="Expected_Value" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
   <si>
     <t>Browser</t>
   </si>
@@ -235,9 +246,6 @@
     <t>James Tsai</t>
   </si>
   <si>
-    <t>https://mshs-prod-cds-2.ot.mountsinai.org/</t>
-  </si>
-  <si>
     <t>Matthew</t>
   </si>
   <si>
@@ -515,13 +523,82 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Visit Type</t>
+  </si>
+  <si>
+    <t>Expected_Value</t>
+  </si>
+  <si>
+    <t>Video Visit - VIDEO VISIT - FOLLOW UP</t>
+  </si>
+  <si>
+    <t>VIDEO VISIT - FOLLOW UP</t>
+  </si>
+  <si>
+    <t>Mount Sinai Health System - New York City | Mount Sinai - New York</t>
+  </si>
+  <si>
+    <t>Find the Best Doctors in NYC | Mount Sinai - New York</t>
+  </si>
+  <si>
+    <t>Search Results |  Mount Sinai - New York</t>
+  </si>
+  <si>
+    <t>&amp;epicVisitId=6515</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>FOLLOW UP</t>
+  </si>
+  <si>
+    <t>NEW PATIENT</t>
+  </si>
+  <si>
+    <t>Search Results | Mount Sinai - New York</t>
+  </si>
+  <si>
+    <t>Pediatric Ear, Nose, Throat / Otolaryngology</t>
+  </si>
+  <si>
+    <t>Base_URI</t>
+  </si>
+  <si>
+    <t>https://dsmservice.mountsinai.org/</t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>schedules</t>
+  </si>
+  <si>
+    <t>/web-service/fad/fetchPeople</t>
+  </si>
+  <si>
+    <t>https://mshs-qa.ot.mountsinai.org/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -550,6 +627,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -595,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +693,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,10 +1017,10 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -943,14 +1029,13 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"chrome,firefox,ie"</formula1>
-      <formula2>0</formula2>
+      <formula1>"chrome,firefox,ie,edge"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -958,17 +1043,188 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FF0DD3-87E6-42A5-8BB8-B46E982EB5A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F1E170-D6FD-4787-A1CC-CB0ED763630F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0097FC65-F5E7-4962-96F1-73E5DB33B655}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACBA71E-3A52-4C65-BDD9-1FDA7575E24B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14C2CF4-5DFE-479B-8389-B532C54279A3}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB457970-4FCA-491B-98FA-08FEF3E3D826}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD7F2CD-0435-4526-AB3A-71969C147EFD}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="57.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -979,13 +1235,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -994,10 +1250,15 @@
         <v>44</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{0E44DE7A-7EDE-40B3-AF1E-4BD16C0A7902}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{3CB4420C-BFD4-4921-835A-86ECE22D12E6}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A7C301A5-3F3B-4B70-90CC-C7C5E8ED10A0}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1009,14 +1270,14 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1030,7 +1291,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1044,7 +1305,7 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1058,7 +1319,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1072,7 +1333,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1086,7 +1347,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1100,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1114,7 +1375,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1128,7 +1389,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1142,7 +1403,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1156,7 +1417,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1170,7 +1431,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1184,7 +1445,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1198,7 +1459,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1212,7 +1473,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1226,7 +1487,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1240,7 +1501,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1254,7 +1515,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1268,7 +1529,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1282,7 +1543,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1296,7 +1557,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1310,21 +1571,21 @@
         <v>67</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1341,13 +1602,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="52.7265625" customWidth="1"/>
-    <col min="5" max="5" width="63.54296875" customWidth="1"/>
-    <col min="6" max="6" width="66.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="52.77734375" customWidth="1"/>
+    <col min="5" max="5" width="63.5546875" customWidth="1"/>
+    <col min="6" max="6" width="66.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1361,13 +1622,13 @@
         <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1381,13 +1642,13 @@
         <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1401,13 +1662,13 @@
         <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1421,13 +1682,13 @@
         <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1441,13 +1702,13 @@
         <v>53</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1461,13 +1722,13 @@
         <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1481,13 +1742,13 @@
         <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1501,13 +1762,13 @@
         <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1521,13 +1782,13 @@
         <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1541,13 +1802,13 @@
         <v>59</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1561,13 +1822,13 @@
         <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1581,13 +1842,13 @@
         <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1601,13 +1862,13 @@
         <v>61</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1621,13 +1882,13 @@
         <v>62</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1641,13 +1902,13 @@
         <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1661,13 +1922,13 @@
         <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1681,13 +1942,13 @@
         <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1701,13 +1962,13 @@
         <v>57</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1721,13 +1982,13 @@
         <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1741,13 +2002,13 @@
         <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1761,33 +2022,33 @@
         <v>67</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1804,10 +2065,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1833,4 +2094,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A67C6C-73A8-435C-8263-CA5436D827E4}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835ECDE7-A2D1-448F-9791-825FFEBDE670}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{21811BF7-C924-429F-9CD6-B359C632108C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E027F2A6-7E3A-4252-A057-74327F6BA3B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A9496B-7EF5-440C-ADAD-F25BA081B652}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>